--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\trc_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389F509-7F11-47A9-B784-AAC00EA4C452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D6C98B-543F-40EF-B520-13B1512D01BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3106,9 +3106,9 @@
   </sheetPr>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3117,6 +3117,7 @@
     <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="83.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="114.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
